--- a/examples/housing_different_levels_feature_info.xlsx
+++ b/examples/housing_different_levels_feature_info.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4016146678027726</v>
+        <v>0.3112141675812391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03361030772475945</v>
+        <v>0.0262744141480097</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2880209662172721</v>
+        <v>0.2701209025744649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02117975365610644</v>
+        <v>0.004965583008701212</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03185127885823946</v>
+        <v>0.03943282405146562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007590746399520992</v>
+        <v>0.008600148100962069</v>
       </c>
     </row>
     <row r="5">
@@ -502,114 +502,114 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03064685682294353</v>
+        <v>0.03076990134317046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005633935622135635</v>
+        <v>0.004963326650784139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02551845895899192</v>
+        <v>0.02473178491016483</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003602653111460091</v>
+        <v>0.002836611042644402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t^2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02382283928797002</v>
+        <v>0.0215601021424487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002905407426705471</v>
+        <v>0.004187930688020282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02366085673562364</v>
+        <v>0.01945796867476466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004468395395633671</v>
+        <v>0.00537094770892249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02298499188311722</v>
+        <v>0.01791347934739014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006279661393474089</v>
+        <v>0.003622412513427034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02072646240553815</v>
+        <v>0.01772196174821901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004356363555090888</v>
+        <v>0.004604753903646666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0190312594665538</v>
+        <v>0.01766065139483011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003788279365238599</v>
+        <v>0.002449224253216838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t^3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01557191159116211</v>
+        <v>0.01437847883414676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002744270854739599</v>
+        <v>0.004705242579158904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01540335173978276</v>
+        <v>0.01334694628701389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004223481960363494</v>
+        <v>0.003749950798501933</v>
       </c>
     </row>
     <row r="14">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001571927687360364</v>
+        <v>0.0003355605721115262</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005723621630184232</v>
+        <v>0.0001127071087599746</v>
       </c>
     </row>
     <row r="15">
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0009597301185270801</v>
+        <v>-0.0001086631787595937</v>
       </c>
       <c r="C15" t="n">
-        <v>6.196849469060078e-05</v>
+        <v>2.572489873165479e-05</v>
       </c>
     </row>
   </sheetData>
@@ -681,36 +681,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1492222608513339</v>
+        <v>0.1344048941802241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005083875241023336</v>
+        <v>0.01420369507801551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09942912935859463</v>
+        <v>0.09524217364641005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01580492196529147</v>
+        <v>0.005950062197041504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0883414728046773</v>
+        <v>0.08910848189989576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004564184623276871</v>
+        <v>0.006147194123480359</v>
       </c>
     </row>
     <row r="5">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0626460801320263</v>
+        <v>0.07752753227375613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003625502201291268</v>
+        <v>0.009109856929697733</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01263770097342929</v>
+        <v>0.01322272853568778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002983376922275769</v>
+        <v>0.001688049378538102</v>
       </c>
     </row>
     <row r="7">
@@ -746,114 +746,114 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009121450604573211</v>
+        <v>0.009313700449447637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002518130716419165</v>
+        <v>0.002510525100590311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001496467790596223</v>
+        <v>0.0006722086676052896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00115952633338238</v>
+        <v>0.0004554482756509076</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005875443972625626</v>
+        <v>0.00046865739346591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007266980665132752</v>
+        <v>0.001646647386705085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002679235774062372</v>
+        <v>0.0003716293368607237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001229604125752902</v>
+        <v>0.000174012281027777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000165621746577016</v>
+        <v>0.0002894259360103346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000462345458606383</v>
+        <v>0.0001537076058458223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.592462675368057e-05</v>
+        <v>0.0001264466157985034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000206549784634589</v>
+        <v>9.425127490874184e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.666951125262941e-05</v>
+        <v>4.292241866936664e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.850843822819505e-05</v>
+        <v>0.0001374640027691238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t^2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.212719766214292e-05</v>
+        <v>3.108925420605147e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001215571899033915</v>
+        <v>0.0003950147313393855</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>t^3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0001955001028265846</v>
+        <v>-7.913636596073026e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004543454613497877</v>
+        <v>0.0002094303265650628</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4804256229583191</v>
+        <v>0.4845450853839538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01531938655773478</v>
+        <v>0.02529366897585286</v>
       </c>
     </row>
     <row r="3">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2941143570078897</v>
+        <v>0.2442651236335841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01683146009377089</v>
+        <v>0.01463910018462063</v>
       </c>
     </row>
     <row r="4">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1422868308726116</v>
+        <v>0.1266055275689127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005734180049157263</v>
+        <v>0.007513567173592763</v>
       </c>
     </row>
     <row r="5">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08191239512969514</v>
+        <v>0.09449026709304593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001860712523918712</v>
+        <v>0.007176643038272711</v>
       </c>
     </row>
     <row r="6">
@@ -951,62 +951,62 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07081718806625163</v>
+        <v>0.07255364931295824</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004560942530101097</v>
+        <v>0.002176625846338165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05776848344769116</v>
+        <v>0.0551713885834801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002713168330426527</v>
+        <v>0.004089104939284176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05589392731927083</v>
+        <v>0.05008730474289935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004623146305695247</v>
+        <v>0.002969257327452744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04577861666722338</v>
+        <v>0.04654025360026608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004031416729659195</v>
+        <v>0.003266207271304815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04217965658436103</v>
+        <v>0.0425143904579474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002149507789971243</v>
+        <v>0.002942236261041641</v>
       </c>
     </row>
     <row r="11">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01352173983862424</v>
+        <v>0.02873809407199237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001108128325340469</v>
+        <v>0.001797626207314966</v>
       </c>
     </row>
     <row r="12">
@@ -1113,40 +1113,40 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2362001087819435</v>
+        <v>1.335362157369801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01995744495887107</v>
+        <v>0.09527206302162604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1284631210112919</v>
+        <v>1.247990826887277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008800682926375262</v>
+        <v>0.1308749044402944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1019720208275061</v>
+        <v>0.8843427773721189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01901074943671431</v>
+        <v>0.05096361956016951</v>
       </c>
     </row>
     <row r="5">
@@ -1156,88 +1156,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07870649421044136</v>
+        <v>0.7851239063547257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007776439940524008</v>
+        <v>0.04578745688050424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06494367728354769</v>
+        <v>0.6694870891928681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00555517674495436</v>
+        <v>0.02346423314756322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03904022278353532</v>
+        <v>0.6185225041393659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004640856128385877</v>
+        <v>0.04986432074819579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t^3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01795448885346413</v>
+        <v>0.5335036229385943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0036881290923445</v>
+        <v>0.04909512115273367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01139831657743218</v>
+        <v>0.491832575933549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002894713211334604</v>
+        <v>0.01991249557023683</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007840580315954049</v>
+        <v>0.4805632178960802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002538125871147634</v>
+        <v>0.03129438404856321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00748943451480002</v>
+        <v>0.4786471477403894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001088412766717718</v>
+        <v>0.03935838899764033</v>
       </c>
     </row>
     <row r="12">
@@ -1247,49 +1247,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004108742630505868</v>
+        <v>0.426345392466564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002248037233212721</v>
+        <v>0.03037130574505785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>t^2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003277452855055429</v>
+        <v>0.4030264325274805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001733132976676362</v>
+        <v>0.02986330975496796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002197233441721824</v>
+        <v>0.05225078243588874</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001071596880310971</v>
+        <v>0.007266362855584529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002015357892397352</v>
+        <v>0.0471721399995693</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007064135947211256</v>
+        <v>0.003915500893373844</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3184</v>
+        <v>-0.3182</v>
       </c>
       <c r="C2" t="n">
         <v>0.033</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.782999999999999</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>-0.382</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.255</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="3">
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0115</v>
+        <v>0.0125</v>
       </c>
       <c r="C3" t="n">
         <v>0.032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.357</v>
+        <v>0.386</v>
       </c>
       <c r="E3" t="n">
-        <v>0.721</v>
+        <v>0.699</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.052</v>
+        <v>-0.051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="4">
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8548</v>
+        <v>-0.8552999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>0.019</v>
       </c>
       <c r="D4" t="n">
-        <v>-45.557</v>
+        <v>-45.69</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>-0.892</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8179999999999999</v>
+        <v>-0.819</v>
       </c>
     </row>
     <row r="5">
@@ -1425,22 +1425,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.6746</v>
+        <v>113.6497</v>
       </c>
       <c r="C5" t="n">
-        <v>5.392</v>
+        <v>5.389</v>
       </c>
       <c r="D5" t="n">
-        <v>21.083</v>
+        <v>21.088</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>103.107</v>
+        <v>103.087</v>
       </c>
       <c r="G5" t="n">
-        <v>124.242</v>
+        <v>124.212</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6414285</v>
+        <v>0.6094951</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001</v>
+        <v>0.0013758</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1687395</v>
+        <v>0.1757667</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.78889100000001</v>
+        <v>90.246358</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9987361</v>
+        <v>0.9915053</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.4111028</v>
+        <v>-2.7210144</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.211108</v>
+        <v>5.9559906</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.91111</v>
+        <v>37.856458</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.011113</v>
+        <v>64.13127900000001</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.711117</v>
+        <v>70.847104</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.011115</v>
+        <v>64.377759</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.311108</v>
+        <v>56.648905</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.411117</v>
+        <v>56.848158</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.611106</v>
+        <v>42.620168</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.211125</v>
+        <v>46.267127</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.911117</v>
+        <v>22.126158</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.8111055</v>
+        <v>-0.1942817</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.6610933393048</v>
+        <v>131.6515417987639</v>
       </c>
       <c r="C2" t="n">
-        <v>2.142930233911656</v>
+        <v>2.111976063585378</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[127.65279808254084, 136.20130135121437]</t>
+          <t>[127.80093695187401, 135.6079356639236]</t>
         </is>
       </c>
     </row>
@@ -1869,13 +1869,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.001626675073172965</v>
+        <v>-0.001627132147375197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007923600340006879</v>
+        <v>0.0007612011005806622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.003318671988128402, -0.0001864729126015913]</t>
+          <t>[-0.0033221221654450555, -0.0003843364133623251]</t>
         </is>
       </c>
     </row>
@@ -1895,13 +1895,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.00159179623550576</v>
+        <v>-0.001592286099545501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000798395611741737</v>
+        <v>0.000812756550778491</v>
       </c>
       <c r="D4" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.003206889551854039, -0.00010029814729958406]</t>
+          <t>[-0.003367411262692005, -0.0003052097937235408]</t>
         </is>
       </c>
     </row>
@@ -1921,13 +1921,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0010760216196294</v>
+        <v>-0.001076363346222353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009078259011215771</v>
+        <v>0.0009351121314784254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.254</v>
+        <v>0.276</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.003197017337618672, 0.00030480131603431905]</t>
+          <t>[-0.0031433278401315906, 0.000339649238012399]</t>
         </is>
       </c>
     </row>
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00143665151425459</v>
+        <v>-0.001437193061739563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008593125909257441</v>
+        <v>0.000838850575306228</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.003207290969002103, 0.00013185384388828895]</t>
+          <t>[-0.0031491684692699163, 0.00010716728888131408]</t>
         </is>
       </c>
     </row>
@@ -1973,13 +1973,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001437639055738104</v>
+        <v>-0.001438143423017808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008425238320289019</v>
+        <v>0.0008155009776510555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.074</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.003161286097715972, 6.0186187727041014e-05]</t>
+          <t>[-0.0031295768749506174, 1.9597805629439993e-05]</t>
         </is>
       </c>
     </row>
@@ -2129,13 +2129,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00067215949586089</v>
+        <v>0.0006719309196328932</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000404405998469785</v>
+        <v>0.0004130655951900205</v>
       </c>
       <c r="D13" t="n">
-        <v>0.058</v>
+        <v>0.064</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.0, 0.0015878564815129644]</t>
+          <t>[0.0, 0.0014650406456744717]</t>
         </is>
       </c>
     </row>
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.7700956137867e-05</v>
+        <v>8.709645577830832e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006192887251560535</v>
+        <v>0.0006072587445994284</v>
       </c>
       <c r="D14" t="n">
-        <v>0.854</v>
+        <v>0.92</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.0011627139131128133, 0.0011836080996271393]</t>
+          <t>[-0.0011808994765435314, 0.001167706661918224]</t>
         </is>
       </c>
     </row>
@@ -2181,13 +2181,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.955923309858816e-06</v>
+        <v>-6.185907150572535e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>3.017205651010466e-05</v>
+        <v>2.578536745479788e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.494</v>
+        <v>0.844</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-8.24225826385577e-05, 6.10655763237152e-05]</t>
+          <t>[-6.92483376838216e-05, 3.231922411055616e-05]</t>
         </is>
       </c>
     </row>
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006733650532182059</v>
+        <v>0.0006734660654054772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000854274325380943</v>
+        <v>0.000852297757239048</v>
       </c>
       <c r="D16" t="n">
-        <v>0.576</v>
+        <v>0.502</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-0.0004286421935952155, 0.002519702462075084]</t>
+          <t>[-0.0005491910189402205, 0.0025382120043509317]</t>
         </is>
       </c>
     </row>
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.613394881727217e-05</v>
+        <v>9.588631448317108e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001005484523741096</v>
+        <v>8.717659938022507e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17</v>
+        <v>0.152</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 0.0003404421553353335]</t>
+          <t>[0.0, 0.00028468769946505586]</t>
         </is>
       </c>
     </row>
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01354455076179211</v>
+        <v>0.01359131524730697</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003285594231549704</v>
+        <v>0.003193336317059578</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.006853492670706529, 0.02012221821596421]</t>
+          <t>[0.00768365581329363, 0.019633636788940832]</t>
         </is>
       </c>
     </row>
@@ -2415,13 +2415,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001610397191276409</v>
+        <v>0.0001602433887632341</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007383304057778039</v>
+        <v>0.0007339846660569969</v>
       </c>
       <c r="D24" t="n">
-        <v>0.846</v>
+        <v>0.838</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.0011381054274612144, 0.0016986384991641641]</t>
+          <t>[-0.0012028428958590232, 0.0016195566602203396]</t>
         </is>
       </c>
     </row>
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002381680000462627</v>
+        <v>0.0002372848202762952</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000694837550910847</v>
+        <v>0.0007438731378411978</v>
       </c>
       <c r="D25" t="n">
-        <v>0.758</v>
+        <v>0.714</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.0010716784909323997, 0.0015724136681112171]</t>
+          <t>[-0.0010922205732201806, 0.0018763810396399093]</t>
         </is>
       </c>
     </row>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001577709289928638</v>
+        <v>0.001587809185622902</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001243360683028107</v>
+        <v>0.001280105159478334</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23</v>
+        <v>0.202</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.0006374785872539751, 0.0039236533513395495]</t>
+          <t>[-0.001001639723492917, 0.003985738401942266]</t>
         </is>
       </c>
     </row>
@@ -2623,13 +2623,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003268997249513879</v>
+        <v>0.003268873431499804</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001501935020446383</v>
+        <v>0.001394851768272366</v>
       </c>
       <c r="D32" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[0.0008085367496295369, 0.0069276491037344266]</t>
+          <t>[0.0006072189824446043, 0.0057586896500197585]</t>
         </is>
       </c>
     </row>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01977439416704133</v>
+        <v>-0.01977968942598941</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003018198897133063</v>
+        <v>0.003049244607086349</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.02593839230024524, -0.013790019789695008]</t>
+          <t>[-0.025312541745064643, -0.013991325168058871]</t>
         </is>
       </c>
     </row>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.0063848533071516</v>
+        <v>-0.006356930758058366</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004865408388457961</v>
+        <v>0.004665178707439805</v>
       </c>
       <c r="D38" t="n">
         <v>0.176</v>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.017184059012842187, 0.0030352463124212344]</t>
+          <t>[-0.015913198102310833, 0.0022889590812809157]</t>
         </is>
       </c>
     </row>
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01615957871612518</v>
+        <v>-0.01617889933102105</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004697247025048925</v>
+        <v>0.00446369008540002</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.025042496858214292, -0.006834399384074919]</t>
+          <t>[-0.025242900815357083, -0.007881618382422564]</t>
         </is>
       </c>
     </row>
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.00573935913826032</v>
+        <v>0.005781804962801573</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003669845494654593</v>
+        <v>0.003648774939495467</v>
       </c>
       <c r="D40" t="n">
-        <v>0.126</v>
+        <v>0.1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.0017822353888655184, 0.012900628314965518]</t>
+          <t>[-0.001078382405523187, 0.013110537056302276]</t>
         </is>
       </c>
     </row>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01391703854001879</v>
+        <v>-0.01391709627690278</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003765931842348546</v>
+        <v>0.003848472267873065</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.021733520901127398, -0.00702031032314585]</t>
+          <t>[-0.02126975066284413, -0.006479997271368254]</t>
         </is>
       </c>
     </row>
@@ -2883,22 +2883,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01357296667525228</v>
+        <v>-0.01358149781126279</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003787287792169359</v>
+        <v>0.003711863897265245</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.02067491120187647, -0.0058896822981178085]</t>
+          <t>[-0.02065117328743862, -0.006014498077899364]</t>
         </is>
       </c>
     </row>
@@ -3169,10 +3169,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.4009014830926939</v>
+        <v>-0.4003224349459799</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05132548674306636</v>
+        <v>0.05249331919117534</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.5017421341983261, -0.3005605599852442]</t>
+          <t>[-0.494975726757003, -0.3001343660051943]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_different_levels_feature_info.xlsx
+++ b/examples/housing_different_levels_feature_info.xlsx
@@ -11,9 +11,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="svr_feature_importance" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lightgbm_feature_importance" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlp_feature_importance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="arima_summary_stats" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hwes_summary_stats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="silverkite_summary_stats" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elasticnet_feature_importance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="arima_summary_stats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hwes_summary_stats" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="silverkite_summary_stats" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,10 +464,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3112141675812391</v>
+        <v>0.3584285375807849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0262744141480097</v>
+        <v>0.02771029979062188</v>
       </c>
     </row>
     <row r="3">
@@ -476,62 +477,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2701209025744649</v>
+        <v>0.2682168614618211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004965583008701212</v>
+        <v>0.02772211402785928</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03943282405146562</v>
+        <v>0.04726445652767299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008600148100962069</v>
+        <v>0.007766394426519184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03076990134317046</v>
+        <v>0.03485790766183019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004963326650784139</v>
+        <v>0.002773889808963788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02473178491016483</v>
+        <v>0.03459775457824301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002836611042644402</v>
+        <v>0.003340703988897328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0215601021424487</v>
+        <v>0.03116793222568912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004187930688020282</v>
+        <v>0.009080600061278876</v>
       </c>
     </row>
     <row r="8">
@@ -541,101 +542,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01945796867476466</v>
+        <v>0.02827281079026656</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00537094770892249</v>
+        <v>0.002020165298092126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01791347934739014</v>
+        <v>0.01735460241812732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003622412513427034</v>
+        <v>0.006492405549201258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01772196174821901</v>
+        <v>0.01575678204993136</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004604753903646666</v>
+        <v>0.003101859993462466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01766065139483011</v>
+        <v>0.01112469923600528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002449224253216838</v>
+        <v>0.004486758913261577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01437847883414676</v>
+        <v>-0.004383839939237477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004705242579158904</v>
+        <v>2.036818060429653e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01334694628701389</v>
+        <v>-0.004461532146783864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003749950798501933</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.0003355605721115262</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0001127071087599746</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.0001086631787595937</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.572489873165479e-05</v>
+        <v>8.134290750824206e-05</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1344048941802241</v>
+        <v>0.1330371737965489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01420369507801551</v>
+        <v>0.007657822630190716</v>
       </c>
     </row>
     <row r="3">
@@ -694,10 +669,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09524217364641005</v>
+        <v>0.09452667184698746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005950062197041504</v>
+        <v>0.006534693193397775</v>
       </c>
     </row>
     <row r="4">
@@ -707,10 +682,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08910848189989576</v>
+        <v>0.09290622859306685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006147194123480359</v>
+        <v>0.01363597285626906</v>
       </c>
     </row>
     <row r="5">
@@ -720,10 +695,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07752753227375613</v>
+        <v>0.08715316319646185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009109856929697733</v>
+        <v>0.005914807628592192</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +708,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01322272853568778</v>
+        <v>0.01499779258666858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001688049378538102</v>
+        <v>0.002195677250430239</v>
       </c>
     </row>
     <row r="7">
@@ -746,10 +721,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009313700449447637</v>
+        <v>0.007536947288225448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002510525100590311</v>
+        <v>0.001502903940893127</v>
       </c>
     </row>
     <row r="8">
@@ -759,23 +734,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006722086676052896</v>
+        <v>0.0005465364059245914</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004554482756509076</v>
+        <v>0.00033065926846342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00046865739346591</v>
+        <v>1.335734779408515e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001646647386705085</v>
+        <v>0.0002405267388905472</v>
       </c>
     </row>
     <row r="10">
@@ -785,10 +760,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003716293368607237</v>
+        <v>3.933800203581583e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000174012281027777</v>
+        <v>1.391430299478938e-05</v>
       </c>
     </row>
     <row r="11">
@@ -798,62 +773,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002894259360103346</v>
+        <v>-4.496096747912404e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001537076058458223</v>
+        <v>0.0003176745700252384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001264466157985034</v>
+        <v>-8.091472436915215e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>9.425127490874184e-05</v>
+        <v>0.0002159824394448611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.292241866936664e-05</v>
+        <v>-0.0004033423969230565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001374640027691238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>t^2</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3.108925420605147e-05</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0003950147313393855</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>t^3</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-7.913636596073026e-05</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0002094303265650628</v>
+        <v>0.001752678476086587</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,10 +848,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4845450853839538</v>
+        <v>0.2470842274966437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02529366897585286</v>
+        <v>0.01323278555633312</v>
       </c>
     </row>
     <row r="3">
@@ -912,101 +861,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2442651236335841</v>
+        <v>0.1490403269105614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01463910018462063</v>
+        <v>0.01029223829296558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1266055275689127</v>
+        <v>0.1192851094551326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007513567173592763</v>
+        <v>0.009751100182888365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09449026709304593</v>
+        <v>0.07213722484968979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007176643038272711</v>
+        <v>0.005544916804179119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07255364931295824</v>
+        <v>0.0565260181174523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002176625846338165</v>
+        <v>0.003055117582095933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0551713885834801</v>
+        <v>0.05407270625661387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004089104939284176</v>
+        <v>0.005058303014052723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05008730474289935</v>
+        <v>0.02136346144759071</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002969257327452744</v>
+        <v>0.001516518746061925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04654025360026608</v>
+        <v>0.01955799280772701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003266207271304815</v>
+        <v>0.001304374305395949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0425143904579474</v>
+        <v>0.01483035286124217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002942236261041641</v>
+        <v>0.00309430945718532</v>
       </c>
     </row>
     <row r="11">
@@ -1016,16 +965,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02873809407199237</v>
+        <v>0.003951156137104661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001797626207314966</v>
+        <v>0.0004462485590236441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1038,39 +987,13 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>COVID19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,131 +1036,131 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.335362157369801</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09527206302162604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.247990826887277</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1308749044402944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8843427773721189</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05096361956016951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7851239063547257</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04578745688050424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6694870891928681</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02346423314756322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6185225041393659</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04986432074819579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t^3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5335036229385943</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04909512115273367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.491832575933549</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01991249557023683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4805632178960802</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03129438404856321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4786471477403894</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03935838899764033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1247,49 +1170,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.426345392466564</v>
+        <v>-4.083624397122066e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03037130574505785</v>
+        <v>0.0001541455304851458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t^2</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4030264325274805</v>
+        <v>-0.0001036948312661989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02986330975496796</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>COVID19</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.05225078243588874</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.007266362855584529</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>t_COVID19</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0471721399995693</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.003915500893373844</v>
+        <v>0.0002708504574197774</v>
       </c>
     </row>
   </sheetData>
@@ -1298,6 +1195,198 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4052707208342194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.03632698055194138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1968097168402166</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01403522103750475</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.01358718084060573</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.002724244940988011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.007980500452869932</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001469301009331159</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.003196360429407608</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.001412682179480209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.000897992145121318</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0004256713995819752</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0001057977463477577</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0002853733946048302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>t_COVID19</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.449444959480186e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0007951530315743424</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>COVID19</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +1445,7 @@
         <v>0.033</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.779999999999999</v>
+        <v>-9.779</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1381,7 +1470,7 @@
         <v>0.032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="E3" t="n">
         <v>0.699</v>
@@ -1400,13 +1489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8552999999999999</v>
+        <v>-0.8552</v>
       </c>
       <c r="C4" t="n">
         <v>0.019</v>
       </c>
       <c r="D4" t="n">
-        <v>-45.69</v>
+        <v>-45.678</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1425,22 +1514,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.6497</v>
+        <v>113.6601</v>
       </c>
       <c r="C5" t="n">
-        <v>5.389</v>
+        <v>5.39</v>
       </c>
       <c r="D5" t="n">
-        <v>21.088</v>
+        <v>21.086</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>103.087</v>
+        <v>103.095</v>
       </c>
       <c r="G5" t="n">
-        <v>124.212</v>
+        <v>124.225</v>
       </c>
     </row>
   </sheetData>
@@ -1448,13 +1537,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,7 +1575,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6094951</v>
+        <v>0.6765757999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1504,7 +1593,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0013758</v>
+        <v>0.0136395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1522,7 +1611,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1757667</v>
+        <v>0.1068323</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1540,7 +1629,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.246358</v>
+        <v>136.79873</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1558,7 +1647,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9915053</v>
+        <v>1.003247</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1572,15 +1661,15 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.0</t>
+          <t>damping_trend</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.7210144</v>
+        <v>0.9902332</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>s.0</t>
+          <t>phi</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -1590,15 +1679,15 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.1</t>
+          <t>initial_seasons.0</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.9559906</v>
+        <v>-39.544687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>s.1</t>
+          <t>s.0</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -1608,15 +1697,15 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.2</t>
+          <t>initial_seasons.1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.856458</v>
+        <v>-34.041081</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>s.2</t>
+          <t>s.1</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -1626,15 +1715,15 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.3</t>
+          <t>initial_seasons.2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.13127900000001</v>
+        <v>-1.050198</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>s.3</t>
+          <t>s.2</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -1644,15 +1733,15 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.4</t>
+          <t>initial_seasons.3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.847104</v>
+        <v>24.881414</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>s.4</t>
+          <t>s.3</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -1662,15 +1751,15 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.5</t>
+          <t>initial_seasons.4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.377759</v>
+        <v>33.000825</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>s.5</t>
+          <t>s.4</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -1680,15 +1769,15 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.6</t>
+          <t>initial_seasons.5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.648905</v>
+        <v>28.571926</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>s.6</t>
+          <t>s.5</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -1698,15 +1787,15 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.7</t>
+          <t>initial_seasons.6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.848158</v>
+        <v>22.245743</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>s.7</t>
+          <t>s.6</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -1716,15 +1805,15 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.8</t>
+          <t>initial_seasons.7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.620168</v>
+        <v>23.617038</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>s.8</t>
+          <t>s.7</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -1734,15 +1823,15 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.9</t>
+          <t>initial_seasons.8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.267127</v>
+        <v>11.253375</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>s.9</t>
+          <t>s.8</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -1752,15 +1841,15 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>initial_seasons.10</t>
+          <t>initial_seasons.9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.126158</v>
+        <v>14.625821</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>s.10</t>
+          <t>s.9</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -1770,18 +1859,36 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>initial_seasons.10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-10.012225</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>s.10</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>initial_seasons.11</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>-0.1942817</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B19" t="n">
+        <v>-34.685169</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>s.11</t>
         </is>
       </c>
-      <c r="D18" t="b">
+      <c r="D19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1790,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1843,10 +1950,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.6515417987639</v>
+        <v>131.6506449003594</v>
       </c>
       <c r="C2" t="n">
-        <v>2.111976063585378</v>
+        <v>2.19328366003824</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1858,7 +1965,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[127.80093695187401, 135.6079356639236]</t>
+          <t>[127.29071952433085, 136.15232203689973]</t>
         </is>
       </c>
     </row>
@@ -1869,13 +1976,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.001627132147375197</v>
+        <v>-0.00162717512177713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007612011005806622</v>
+        <v>0.0007847666725910171</v>
       </c>
       <c r="D3" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1884,7 +1991,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.0033221221654450555, -0.0003843364133623251]</t>
+          <t>[-0.0032826659198894096, -0.0003430864375850368]</t>
         </is>
       </c>
     </row>
@@ -1895,22 +2002,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001592286099545501</v>
+        <v>-0.001592332110755957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000812756550778491</v>
+        <v>0.0008450259116624576</v>
       </c>
       <c r="D4" t="n">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.003367411262692005, -0.0003052097937235408]</t>
+          <t>[-0.0033304128855085715, -2.7530645588071977e-05]</t>
         </is>
       </c>
     </row>
@@ -1921,13 +2028,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001076363346222353</v>
+        <v>-0.001076395432928198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009351121314784254</v>
+        <v>0.0008618726880243225</v>
       </c>
       <c r="D5" t="n">
-        <v>0.276</v>
+        <v>0.248</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1936,7 +2043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.0031433278401315906, 0.000339649238012399]</t>
+          <t>[-0.0028558497860272742, 0.0003003874225362183]</t>
         </is>
       </c>
     </row>
@@ -1947,22 +2054,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001437193061739563</v>
+        <v>-0.001437243978794874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000838850575306228</v>
+        <v>0.0008916260403438718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.092</v>
+        <v>0.108</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.0031491684692699163, 0.00010716728888131408]</t>
+          <t>[-0.003134404197889089, 0.00018577660660214283]</t>
         </is>
       </c>
     </row>
@@ -1973,13 +2080,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.001438143423017808</v>
+        <v>-0.001438190901876749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008155009776510555</v>
+        <v>0.000867938768975628</v>
       </c>
       <c r="D7" t="n">
-        <v>0.074</v>
+        <v>0.096</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1988,7 +2095,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.0031295768749506174, 1.9597805629439993e-05]</t>
+          <t>[-0.003160751149163141, 5.5765599864147245e-05]</t>
         </is>
       </c>
     </row>
@@ -2129,13 +2236,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006719309196328932</v>
+        <v>0.0006719094262175365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004130655951900205</v>
+        <v>0.0004376889354409139</v>
       </c>
       <c r="D13" t="n">
-        <v>0.064</v>
+        <v>0.096</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2144,7 +2251,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.0, 0.0014650406456744717]</t>
+          <t>[0.0, 0.0017121423608374843]</t>
         </is>
       </c>
     </row>
@@ -2155,13 +2262,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.709645577830832e-05</v>
+        <v>8.703978930971555e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006072587445994284</v>
+        <v>0.0006264734249192066</v>
       </c>
       <c r="D14" t="n">
-        <v>0.92</v>
+        <v>0.846</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2170,7 +2277,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.0011808994765435314, 0.001167706661918224]</t>
+          <t>[-0.0012640391405146496, 0.0012079308926673197]</t>
         </is>
       </c>
     </row>
@@ -2181,13 +2288,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.185907150572535e-06</v>
+        <v>-6.207522023816158e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.578536745479788e-05</v>
+        <v>2.22986180886624e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.844</v>
+        <v>0.478</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2196,7 +2303,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-6.92483376838216e-05, 3.231922411055616e-05]</t>
+          <t>[-6.737272362998225e-05, 3.062108685430351e-05]</t>
         </is>
       </c>
     </row>
@@ -2207,13 +2314,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006734660654054772</v>
+        <v>0.0006734756443624962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000852297757239048</v>
+        <v>0.0008718163883289616</v>
       </c>
       <c r="D16" t="n">
-        <v>0.502</v>
+        <v>0.438</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2222,7 +2329,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-0.0005491910189402205, 0.0025382120043509317]</t>
+          <t>[-0.00043052853687415403, 0.002652726483812896]</t>
         </is>
       </c>
     </row>
@@ -2233,13 +2340,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.588631448317108e-05</v>
+        <v>9.586309079141912e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>8.717659938022507e-05</v>
+        <v>0.0001035037935152903</v>
       </c>
       <c r="D17" t="n">
-        <v>0.152</v>
+        <v>0.166</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2248,7 +2355,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 0.00028468769946505586]</t>
+          <t>[0.0, 0.00034634600675600107]</t>
         </is>
       </c>
     </row>
@@ -2389,10 +2496,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01359131524730697</v>
+        <v>0.01359073591863184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003193336317059578</v>
+        <v>0.00317636205090015</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2404,7 +2511,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.00768365581329363, 0.019633636788940832]</t>
+          <t>[0.00815178051669575, 0.02043702855516175]</t>
         </is>
       </c>
     </row>
@@ -2415,13 +2522,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001602433887632341</v>
+        <v>0.0001601685156696924</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007339846660569969</v>
+        <v>0.0007746481397415862</v>
       </c>
       <c r="D24" t="n">
-        <v>0.838</v>
+        <v>0.82</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2430,7 +2537,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.0012028428958590232, 0.0016195566602203396]</t>
+          <t>[-0.0013397167153485971, 0.0015853149048847132]</t>
         </is>
       </c>
     </row>
@@ -2441,13 +2548,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002372848202762952</v>
+        <v>0.0002372017868594935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007438731378411978</v>
+        <v>0.0007070879608051571</v>
       </c>
       <c r="D25" t="n">
-        <v>0.714</v>
+        <v>0.728</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2456,7 +2563,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.0010922205732201806, 0.0018763810396399093]</t>
+          <t>[-0.0011047200626426667, 0.0015740079213330228]</t>
         </is>
       </c>
     </row>
@@ -2597,13 +2704,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001587809185622902</v>
+        <v>0.001593723822766651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001280105159478334</v>
+        <v>0.001239593161281594</v>
       </c>
       <c r="D31" t="n">
-        <v>0.202</v>
+        <v>0.22</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2612,7 +2719,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.001001639723492917, 0.003985738401942266]</t>
+          <t>[-0.000793388401156115, 0.0041515112554369495]</t>
         </is>
       </c>
     </row>
@@ -2623,10 +2730,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003268873431499804</v>
+        <v>0.003268861690952046</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001394851768272366</v>
+        <v>0.001452952196339381</v>
       </c>
       <c r="D32" t="n">
         <v>0.028</v>
@@ -2638,7 +2745,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[0.0006072189824446043, 0.0057586896500197585]</t>
+          <t>[0.0007017376045689863, 0.006279977440701325]</t>
         </is>
       </c>
     </row>
@@ -2649,10 +2756,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.01977968942598941</v>
+        <v>-0.01978018380571789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003049244607086349</v>
+        <v>0.002865874858154346</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2664,7 +2771,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.025312541745064643, -0.013991325168058871]</t>
+          <t>[-0.025140167410333387, -0.014329713296764596]</t>
         </is>
       </c>
     </row>
@@ -2779,13 +2886,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.006356930758058366</v>
+        <v>-0.006359268452178195</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004665178707439805</v>
+        <v>0.004836367220062665</v>
       </c>
       <c r="D38" t="n">
-        <v>0.176</v>
+        <v>0.186</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2794,7 +2901,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.015913198102310833, 0.0022889590812809157]</t>
+          <t>[-0.015394453576975359, 0.003472472098220888]</t>
         </is>
       </c>
     </row>
@@ -2805,22 +2912,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01617889933102105</v>
+        <v>-0.01618070229509681</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00446369008540002</v>
+        <v>0.004400601803463454</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.025242900815357083, -0.007881618382422564]</t>
+          <t>[-0.023982499193896882, -0.007291070802362834]</t>
         </is>
       </c>
     </row>
@@ -2831,22 +2938,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005781804962801573</v>
+        <v>0.005780823044858414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003648774939495467</v>
+        <v>0.003341516937544594</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.001078382405523187, 0.013110537056302276]</t>
+          <t>[-0.0009222880957257427, 0.012362579227071608]</t>
         </is>
       </c>
     </row>
@@ -2857,10 +2964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01391709627690278</v>
+        <v>-0.01391214022302732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003848472267873065</v>
+        <v>0.003683595989553756</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2872,7 +2979,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.02126975066284413, -0.006479997271368254]</t>
+          <t>[-0.02129316281565882, -0.0067818444857221435]</t>
         </is>
       </c>
     </row>
@@ -2883,10 +2990,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01358149781126279</v>
+        <v>-0.01358229627582501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003711863897265245</v>
+        <v>0.003795375342043933</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2898,7 +3005,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.02065117328743862, -0.006014498077899364]</t>
+          <t>[-0.020857957479933187, -0.005965597547561825]</t>
         </is>
       </c>
     </row>
@@ -3169,10 +3276,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.4003224349459799</v>
+        <v>-0.400268027894721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05249331919117534</v>
+        <v>0.05005654705523619</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3184,7 +3291,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.494975726757003, -0.3001343660051943]</t>
+          <t>[-0.4958099558569177, -0.3064292514702962]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_different_levels_feature_info.xlsx
+++ b/examples/housing_different_levels_feature_info.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3584285375807849</v>
+        <v>0.3310770806224867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02771029979062188</v>
+        <v>0.02423911354862615</v>
       </c>
     </row>
     <row r="3">
@@ -477,36 +477,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2682168614618211</v>
+        <v>0.2861180959364029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02772211402785928</v>
+        <v>0.01590571676903689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04726445652767299</v>
+        <v>0.04453303526467176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007766394426519184</v>
+        <v>0.00591355712256211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03485790766183019</v>
+        <v>0.04318176366924873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002773889808963788</v>
+        <v>0.008195005399028007</v>
       </c>
     </row>
     <row r="6">
@@ -516,36 +516,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03459775457824301</v>
+        <v>0.0270206521304049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003340703988897328</v>
+        <v>0.00280686295201505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03116793222568912</v>
+        <v>0.0264255352439049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009080600061278876</v>
+        <v>0.004741964885782521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02827281079026656</v>
+        <v>0.0253826406959347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002020165298092126</v>
+        <v>0.003974868987551755</v>
       </c>
     </row>
     <row r="9">
@@ -555,36 +555,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01735460241812732</v>
+        <v>0.01580815448121044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006492405549201258</v>
+        <v>0.007015746722835646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01575678204993136</v>
+        <v>0.01510190747252522</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003101859993462466</v>
+        <v>0.004755366183864099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01112469923600528</v>
+        <v>0.01436213218292395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004486758913261577</v>
+        <v>0.004630596135762395</v>
       </c>
     </row>
     <row r="12">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.004383839939237477</v>
+        <v>-0.004391436287974737</v>
       </c>
       <c r="C12" t="n">
-        <v>2.036818060429653e-05</v>
+        <v>3.667807724530015e-05</v>
       </c>
     </row>
     <row r="13">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004461532146783864</v>
+        <v>-0.004488960371755235</v>
       </c>
       <c r="C13" t="n">
-        <v>8.134290750824206e-05</v>
+        <v>0.000127536264206912</v>
       </c>
     </row>
   </sheetData>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1330371737965489</v>
+        <v>0.1250951933915811</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007657822630190716</v>
+        <v>0.009174855260060179</v>
       </c>
     </row>
     <row r="3">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09452667184698746</v>
+        <v>0.09483703451673302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006534693193397775</v>
+        <v>0.006299543533178333</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09290622859306685</v>
+        <v>0.09183434109985338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01363597285626906</v>
+        <v>0.007545347818006968</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08715316319646185</v>
+        <v>0.07852548659251217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005914807628592192</v>
+        <v>0.006753829817357193</v>
       </c>
     </row>
     <row r="6">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01499779258666858</v>
+        <v>0.01609157932881884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002195677250430239</v>
+        <v>0.001355166003804743</v>
       </c>
     </row>
     <row r="7">
@@ -721,88 +721,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007536947288225448</v>
+        <v>0.008755845921130101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001502903940893127</v>
+        <v>0.001335013881861138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005465364059245914</v>
+        <v>0.00111415997120754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00033065926846342</v>
+        <v>0.001341290065474161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.335734779408515e-05</v>
+        <v>0.0009520982827777135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002405267388905472</v>
+        <v>0.0004677467323824442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.933800203581583e-06</v>
+        <v>0.0001794829406629894</v>
       </c>
       <c r="C10" t="n">
-        <v>1.391430299478938e-05</v>
+        <v>0.0001300137249201704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.496096747912404e-05</v>
+        <v>4.706359157080619e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003176745700252384</v>
+        <v>1.198821957887756e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.091472436915215e-05</v>
+        <v>-4.744297170611311e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002159824394448611</v>
+        <v>0.0001954070455963252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0004033423969230565</v>
+        <v>-2.574005469331286e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001752678476086587</v>
+        <v>0.0003088369541840091</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2470842274966437</v>
+        <v>0.2517927618591477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01323278555633312</v>
+        <v>0.02060807420422279</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1490403269105614</v>
+        <v>0.1476774144410726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01029223829296558</v>
+        <v>0.007135557051135569</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1192851094551326</v>
+        <v>0.1180645630898921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009751100182888365</v>
+        <v>0.005025215456836872</v>
       </c>
     </row>
     <row r="5">
@@ -887,36 +887,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07213722484968979</v>
+        <v>0.08024689528384443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005544916804179119</v>
+        <v>0.01205806128484837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0565260181174523</v>
+        <v>0.05512890833276014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003055117582095933</v>
+        <v>0.005797456087188755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05407270625661387</v>
+        <v>0.05251899749731641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005058303014052723</v>
+        <v>0.005690817826685499</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02136346144759071</v>
+        <v>0.0219963534218302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001516518746061925</v>
+        <v>0.004052621803306379</v>
       </c>
     </row>
     <row r="9">
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01955799280772701</v>
+        <v>0.01942611461122474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001304374305395949</v>
+        <v>0.002004910159073966</v>
       </c>
     </row>
     <row r="10">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01483035286124217</v>
+        <v>0.01404626727792817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00309430945718532</v>
+        <v>0.004393435201982033</v>
       </c>
     </row>
     <row r="11">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003951156137104661</v>
+        <v>0.004468452265233891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004462485590236441</v>
+        <v>0.0007644752018774516</v>
       </c>
     </row>
     <row r="12">
@@ -1036,53 +1036,53 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3020480085329996</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01713225343869228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1406617596213368</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01114200414192843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.1357078248797973</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.009248443569705925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.09462472779855373</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.005518477452236396</v>
       </c>
     </row>
     <row r="6">
@@ -1092,75 +1092,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.07971297135598979</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.007570715753051341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.05582265676888332</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.002098188649462028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.04942282239559033</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.006714416165635747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.02457511861058639</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.003369832527659532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02180642920664617</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.003302182090138707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.017406314396361</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0032274899818534</v>
       </c>
     </row>
     <row r="12">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.083624397122066e-06</v>
+        <v>0.01563561178671333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001541455304851458</v>
+        <v>0.005218469890033751</v>
       </c>
     </row>
     <row r="13">
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001036948312661989</v>
+        <v>0.01464503053775932</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002708504574197774</v>
+        <v>0.002166064972451429</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4052707208342194</v>
+        <v>0.3523989692910339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03632698055194138</v>
+        <v>0.02041323354538953</v>
       </c>
     </row>
     <row r="3">
@@ -1245,49 +1245,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1968097168402166</v>
+        <v>0.1687679830096946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01403522103750475</v>
+        <v>0.01025209544072214</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01358718084060573</v>
+        <v>0.03008313899919848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002724244940988011</v>
+        <v>0.004318301379895178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007980500452869932</v>
+        <v>0.02786957821955451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001469301009331159</v>
+        <v>0.004155012075634311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003196360429407608</v>
+        <v>0.02104112319200961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001412682179480209</v>
+        <v>0.003192635306856851</v>
       </c>
     </row>
     <row r="7">
@@ -1297,36 +1297,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000897992145121318</v>
+        <v>0.004917530729119535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004256713995819752</v>
+        <v>0.001662213045228075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001057977463477577</v>
+        <v>0.0001213630795052545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002853733946048302</v>
+        <v>0.0002332203789114378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.449444959480186e-05</v>
+        <v>8.292811075878425e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007951530315743424</v>
+        <v>0.0001646311580690264</v>
       </c>
     </row>
     <row r="10">
@@ -1358,7 +1358,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1371,14 +1371,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-0.0001274703426106916</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9.63513137745827e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1953,7 @@
         <v>131.6506449003594</v>
       </c>
       <c r="C2" t="n">
-        <v>2.19328366003824</v>
+        <v>2.057858289366099</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[127.29071952433085, 136.15232203689973]</t>
+          <t>[127.71484948330925, 135.759305781615]</t>
         </is>
       </c>
     </row>
@@ -1979,19 +1979,19 @@
         <v>-0.00162717512177713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007847666725910171</v>
+        <v>0.0008375789862487387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.032</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.0032826659198894096, -0.0003430864375850368]</t>
+          <t>[-0.0034904471780789733, -0.00035250364676419103]</t>
         </is>
       </c>
     </row>
@@ -2005,19 +2005,19 @@
         <v>-0.001592332110755957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008450259116624576</v>
+        <v>0.0008263753227700843</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.0033304128855085715, -2.7530645588071977e-05]</t>
+          <t>[-0.003376809364850176, -0.0002842091159986112]</t>
         </is>
       </c>
     </row>
@@ -2031,10 +2031,10 @@
         <v>-0.001076395432928198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008618726880243225</v>
+        <v>0.0008994828789424328</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248</v>
+        <v>0.242</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.0028558497860272742, 0.0003003874225362183]</t>
+          <t>[-0.003075395518091493, 0.00026443010310348]</t>
         </is>
       </c>
     </row>
@@ -2057,10 +2057,10 @@
         <v>-0.001437243978794874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008916260403438718</v>
+        <v>0.0009078510956877015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.108</v>
+        <v>0.104</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.003134404197889089, 0.00018577660660214283]</t>
+          <t>[-0.003316130550289947, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2083,19 +2083,19 @@
         <v>-0.001438190901876749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000867938768975628</v>
+        <v>0.0008796499832052544</v>
       </c>
       <c r="D7" t="n">
-        <v>0.096</v>
+        <v>0.108</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.003160751149163141, 5.5765599864147245e-05]</t>
+          <t>[-0.003346529108193375, 0.00012475718115472533]</t>
         </is>
       </c>
     </row>
@@ -2239,19 +2239,19 @@
         <v>0.0006719094262175365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004376889354409139</v>
+        <v>0.0004135775167505424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.096</v>
+        <v>0.112</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.0, 0.0017121423608374843]</t>
+          <t>[0.0, 0.0015653101454938616]</t>
         </is>
       </c>
     </row>
@@ -2265,10 +2265,10 @@
         <v>8.703978930971555e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006264734249192066</v>
+        <v>0.0006575888322765193</v>
       </c>
       <c r="D14" t="n">
-        <v>0.846</v>
+        <v>0.858</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.0012640391405146496, 0.0012079308926673197]</t>
+          <t>[-0.0013914040519164101, 0.001243561590436226]</t>
         </is>
       </c>
     </row>
@@ -2291,10 +2291,10 @@
         <v>-6.207522023816158e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.22986180886624e-05</v>
+        <v>2.650441683942155e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.478</v>
+        <v>0.862</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-6.737272362998225e-05, 3.062108685430351e-05]</t>
+          <t>[-7.507940149840609e-05, 3.8755036250055005e-05]</t>
         </is>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
         <v>0.0006734756443624962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008718163883289616</v>
+        <v>0.0008815473978741064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.438</v>
+        <v>0.448</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-0.00043052853687415403, 0.002652726483812896]</t>
+          <t>[-0.00048340083712649024, 0.0030438449943105362]</t>
         </is>
       </c>
     </row>
@@ -2343,10 +2343,10 @@
         <v>9.586309079141912e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001035037935152903</v>
+        <v>9.414399762113968e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.166</v>
+        <v>0.154</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 0.00034634600675600107]</t>
+          <t>[0.0, 0.0003199360250133828]</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>0.01359073591863184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00317636205090015</v>
+        <v>0.003269472644013808</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.00815178051669575, 0.02043702855516175]</t>
+          <t>[0.007489800356489433, 0.020026756812087244]</t>
         </is>
       </c>
     </row>
@@ -2525,10 +2525,10 @@
         <v>0.0001601685156696924</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007746481397415862</v>
+        <v>0.0007539508260522246</v>
       </c>
       <c r="D24" t="n">
-        <v>0.82</v>
+        <v>0.836</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.0013397167153485971, 0.0015853149048847132]</t>
+          <t>[-0.0014993458867009388, 0.001573988874106356]</t>
         </is>
       </c>
     </row>
@@ -2551,10 +2551,10 @@
         <v>0.0002372017868594935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007070879608051571</v>
+        <v>0.0007008006481524336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.728</v>
+        <v>0.712</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.0011047200626426667, 0.0015740079213330228]</t>
+          <t>[-0.000975667521544696, 0.0018295023364776689]</t>
         </is>
       </c>
     </row>
@@ -2707,10 +2707,10 @@
         <v>0.001593723822766651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001239593161281594</v>
+        <v>0.001249909462171843</v>
       </c>
       <c r="D31" t="n">
-        <v>0.22</v>
+        <v>0.228</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.000793388401156115, 0.0041515112554369495]</t>
+          <t>[-0.0006488394679963612, 0.004172831525661028]</t>
         </is>
       </c>
     </row>
@@ -2733,10 +2733,10 @@
         <v>0.003268861690952046</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001452952196339381</v>
+        <v>0.00146010911634038</v>
       </c>
       <c r="D32" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[0.0007017376045689863, 0.006279977440701325]</t>
+          <t>[0.0003827070699917174, 0.006251960191912098]</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>-0.01978018380571789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002865874858154346</v>
+        <v>0.003101145392344795</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.025140167410333387, -0.014329713296764596]</t>
+          <t>[-0.026654899086069862, -0.014571132326581233]</t>
         </is>
       </c>
     </row>
@@ -2889,10 +2889,10 @@
         <v>-0.006359268452178195</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004836367220062665</v>
+        <v>0.005072826998411959</v>
       </c>
       <c r="D38" t="n">
-        <v>0.186</v>
+        <v>0.208</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.015394453576975359, 0.003472472098220888]</t>
+          <t>[-0.016053151623856905, 0.00361331702141087]</t>
         </is>
       </c>
     </row>
@@ -2915,19 +2915,19 @@
         <v>-0.01618070229509681</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004400601803463454</v>
+        <v>0.004597966173846651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.023982499193896882, -0.007291070802362834]</t>
+          <t>[-0.024519946769766154, -0.007302817319058717]</t>
         </is>
       </c>
     </row>
@@ -2941,19 +2941,19 @@
         <v>0.005780823044858414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003341516937544594</v>
+        <v>0.003743383893596116</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09</v>
+        <v>0.116</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.0009222880957257427, 0.012362579227071608]</t>
+          <t>[-0.0016923019334014265, 0.013211843586554018]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>-0.01391214022302732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003683595989553756</v>
+        <v>0.003639079972567328</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.02129316281565882, -0.0067818444857221435]</t>
+          <t>[-0.02150252488969171, -0.006590676719624102]</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
         <v>-0.01358229627582501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003795375342043933</v>
+        <v>0.003933559325535713</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.020857957479933187, -0.005965597547561825]</t>
+          <t>[-0.02232960225060337, -0.006690974281375578]</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
         <v>-0.400268027894721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05005654705523619</v>
+        <v>0.05108983183604858</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.4958099558569177, -0.3064292514702962]</t>
+          <t>[-0.4929396597669076, -0.3016862931762375]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_different_levels_feature_info.xlsx
+++ b/examples/housing_different_levels_feature_info.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3310770806224867</v>
+        <v>0.3305273321919366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02423911354862615</v>
+        <v>0.03256281739702977</v>
       </c>
     </row>
     <row r="3">
@@ -477,36 +477,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2861180959364029</v>
+        <v>0.2940621051379161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01590571676903689</v>
+        <v>0.02409108034845309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04453303526467176</v>
+        <v>0.03960659220958447</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00591355712256211</v>
+        <v>0.006228686156378642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04318176366924873</v>
+        <v>0.03812834230676241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008195005399028007</v>
+        <v>0.006094003657103203</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0270206521304049</v>
+        <v>0.03567081119685515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00280686295201505</v>
+        <v>0.01076025488479784</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0264255352439049</v>
+        <v>0.02876711007440851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004741964885782521</v>
+        <v>0.004803832571701117</v>
       </c>
     </row>
     <row r="8">
@@ -542,75 +542,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0253826406959347</v>
+        <v>0.02734857547007728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003974868987551755</v>
+        <v>0.01000615145177223</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01580815448121044</v>
+        <v>0.01643589379314265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007015746722835646</v>
+        <v>0.005046461194351899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01510190747252522</v>
+        <v>0.01557271969740917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004755366183864099</v>
+        <v>0.005540060167757119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01436213218292395</v>
+        <v>0.009881764713896147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004630596135762395</v>
+        <v>0.004495279429703319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.004391436287974737</v>
+        <v>-0.004237070287537614</v>
       </c>
       <c r="C12" t="n">
-        <v>3.667807724530015e-05</v>
+        <v>0.0005520147242412375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004488960371755235</v>
+        <v>-0.00440388357821091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000127536264206912</v>
+        <v>9.068076211488678e-05</v>
       </c>
     </row>
   </sheetData>
@@ -656,36 +656,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1250951933915811</v>
+        <v>0.1276445468093829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009174855260060179</v>
+        <v>0.01277437910300758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09483703451673302</v>
+        <v>0.09187932743315072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006299543533178333</v>
+        <v>0.01417500955643608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09183434109985338</v>
+        <v>0.09075092315260587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007545347818006968</v>
+        <v>0.009420685997869094</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07852548659251217</v>
+        <v>0.08438463239697096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006753829817357193</v>
+        <v>0.007848323439039509</v>
       </c>
     </row>
     <row r="6">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01609157932881884</v>
+        <v>0.0156495924902027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001355166003804743</v>
+        <v>0.001450607111070505</v>
       </c>
     </row>
     <row r="7">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008755845921130101</v>
+        <v>0.01039660561275377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001335013881861138</v>
+        <v>0.001313752714676336</v>
       </c>
     </row>
     <row r="8">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00111415997120754</v>
+        <v>0.001751598413934019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001341290065474161</v>
+        <v>0.0008545917050242124</v>
       </c>
     </row>
     <row r="9">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009520982827777135</v>
+        <v>0.000518802110022687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004677467323824442</v>
+        <v>0.0001308500884047752</v>
       </c>
     </row>
     <row r="10">
@@ -760,49 +760,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001794829406629894</v>
+        <v>0.0003064430754433634</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001300137249201704</v>
+        <v>0.000399627797355676</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.706359157080619e-06</v>
+        <v>3.419896479006646e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>1.198821957887756e-05</v>
+        <v>0.0004157012273662144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.744297170611311e-06</v>
+        <v>-2.966800551567061e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001954070455963252</v>
+        <v>5.900056333899298e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.574005469331286e-05</v>
+        <v>-0.0002094045186772142</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003088369541840091</v>
+        <v>0.0003999671372255404</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2517927618591477</v>
+        <v>0.2677084486826405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02060807420422279</v>
+        <v>0.02680427799424186</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1476774144410726</v>
+        <v>0.1714982214702134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007135557051135569</v>
+        <v>0.01426990638492858</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1180645630898921</v>
+        <v>0.09129003044610376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005025215456836872</v>
+        <v>0.005122660833173319</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08024689528384443</v>
+        <v>0.08279619694549711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01205806128484837</v>
+        <v>0.007183330150437776</v>
       </c>
     </row>
     <row r="6">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05512890833276014</v>
+        <v>0.05810658268675275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005797456087188755</v>
+        <v>0.006642874705171127</v>
       </c>
     </row>
     <row r="7">
@@ -913,23 +913,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05251899749731641</v>
+        <v>0.05412984425494363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005690817826685499</v>
+        <v>0.004669611366975967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0219963534218302</v>
+        <v>0.02426028672268072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004052621803306379</v>
+        <v>0.001333800691997696</v>
       </c>
     </row>
     <row r="9">
@@ -939,23 +939,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01942611461122474</v>
+        <v>0.02216492291794971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002004910159073966</v>
+        <v>0.002069944011064786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01404626727792817</v>
+        <v>0.01708351417575911</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004393435201982033</v>
+        <v>0.001430424591025751</v>
       </c>
     </row>
     <row r="11">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004468452265233891</v>
+        <v>0.00477476965608985</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007644752018774516</v>
+        <v>0.0004619889346377528</v>
       </c>
     </row>
     <row r="12">
@@ -1040,36 +1040,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3020480085329996</v>
+        <v>0.2822061111163302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01713225343869228</v>
+        <v>0.01724960778434109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1406617596213368</v>
+        <v>0.1349251433000499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01114200414192843</v>
+        <v>0.006853588235029141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1357078248797973</v>
+        <v>0.1333770828889762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009248443569705925</v>
+        <v>0.0157950635139701</v>
       </c>
     </row>
     <row r="5">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09462472779855373</v>
+        <v>0.09915488135983622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005518477452236396</v>
+        <v>0.008602508114565413</v>
       </c>
     </row>
     <row r="6">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07971297135598979</v>
+        <v>0.08413959748960176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007570715753051341</v>
+        <v>0.00581289803456021</v>
       </c>
     </row>
     <row r="7">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05582265676888332</v>
+        <v>0.05226029036194473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002098188649462028</v>
+        <v>0.004077388678440414</v>
       </c>
     </row>
     <row r="8">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04942282239559033</v>
+        <v>0.04521153202499664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006714416165635747</v>
+        <v>0.009219295331558588</v>
       </c>
     </row>
     <row r="9">
@@ -1131,49 +1131,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02457511861058639</v>
+        <v>0.02259224855241375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003369832527659532</v>
+        <v>0.00352144162733247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02180642920664617</v>
+        <v>0.02133146236536174</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003302182090138707</v>
+        <v>0.004335685891002102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.017406314396361</v>
+        <v>0.01719692657530587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0032274899818534</v>
+        <v>0.005029718090622208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01563561178671333</v>
+        <v>0.01517161300679395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005218469890033751</v>
+        <v>0.002328613600979104</v>
       </c>
     </row>
     <row r="13">
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01464503053775932</v>
+        <v>0.01048205967500171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002166064972451429</v>
+        <v>0.005261081230329044</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3523989692910339</v>
+        <v>0.3633753616809722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02041323354538953</v>
+        <v>0.02261123454293594</v>
       </c>
     </row>
     <row r="3">
@@ -1245,49 +1245,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1687679830096946</v>
+        <v>0.2056526723527118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01025209544072214</v>
+        <v>0.01278462346362934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03008313899919848</v>
+        <v>0.01597055101903504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004318301379895178</v>
+        <v>0.00420252077526354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02786957821955451</v>
+        <v>0.01052575455612708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004155012075634311</v>
+        <v>0.001662880531770609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02104112319200961</v>
+        <v>0.00283485607327878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003192635306856851</v>
+        <v>0.0007848856420095571</v>
       </c>
     </row>
     <row r="7">
@@ -1297,59 +1297,59 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004917530729119535</v>
+        <v>0.001599339252706833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001662213045228075</v>
+        <v>0.001122536440903827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001213630795052545</v>
+        <v>0.001502006255463817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002332203789114378</v>
+        <v>0.0009140686218235295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.292811075878425e-05</v>
+        <v>0.001083604460023957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001646311580690264</v>
+        <v>0.001444874115580786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.313713646133753e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0002383202695128616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1358,11 +1358,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1371,14 +1371,14 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001274703426106916</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C13" t="n">
-        <v>9.63513137745827e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1953,7 @@
         <v>131.6506449003594</v>
       </c>
       <c r="C2" t="n">
-        <v>2.057858289366099</v>
+        <v>2.048982301925532</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[127.71484948330925, 135.759305781615]</t>
+          <t>[127.61132683295847, 135.74454977860057]</t>
         </is>
       </c>
     </row>
@@ -1979,19 +1979,19 @@
         <v>-0.00162717512177713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008375789862487387</v>
+        <v>0.0007998463207331773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.036</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.0034904471780789733, -0.00035250364676419103]</t>
+          <t>[-0.003320240278052027, -0.00036116827056307133]</t>
         </is>
       </c>
     </row>
@@ -2005,10 +2005,10 @@
         <v>-0.001592332110755957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008263753227700843</v>
+        <v>0.0007778530343803839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.003376809364850176, -0.0002842091159986112]</t>
+          <t>[-0.0031991880528267217, -0.00020512354353971224]</t>
         </is>
       </c>
     </row>
@@ -2031,10 +2031,10 @@
         <v>-0.001076395432928198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008994828789424328</v>
+        <v>0.0009153634241242237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242</v>
+        <v>0.26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.003075395518091493, 0.00026443010310348]</t>
+          <t>[-0.0031555446623628197, 0.0002514527563184467]</t>
         </is>
       </c>
     </row>
@@ -2057,19 +2057,19 @@
         <v>-0.001437243978794874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009078510956877015</v>
+        <v>0.0008768178830317378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104</v>
+        <v>0.092</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.003316130550289947, 0.0]</t>
+          <t>[-0.0032386755021039976, 0.00011628879511953262]</t>
         </is>
       </c>
     </row>
@@ -2083,19 +2083,19 @@
         <v>-0.001438190901876749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008796499832052544</v>
+        <v>0.0008044380585086806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108</v>
+        <v>0.062</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.003346529108193375, 0.00012475718115472533]</t>
+          <t>[-0.00322727345456906, -0.00010112997733490349]</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2239,10 @@
         <v>0.0006719094262175365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004135775167505424</v>
+        <v>0.000410205624830696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.0, 0.0015653101454938616]</t>
+          <t>[0.0, 0.0015181503188187217]</t>
         </is>
       </c>
     </row>
@@ -2265,10 +2265,10 @@
         <v>8.703978930971555e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006575888322765193</v>
+        <v>0.0006544108647738605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.858</v>
+        <v>0.86</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.0013914040519164101, 0.001243561590436226]</t>
+          <t>[-0.0011361901064749773, 0.0013681653723094521]</t>
         </is>
       </c>
     </row>
@@ -2291,10 +2291,10 @@
         <v>-6.207522023816158e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.650441683942155e-05</v>
+        <v>2.309486982163581e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.862</v>
+        <v>0.462</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-7.507940149840609e-05, 3.8755036250055005e-05]</t>
+          <t>[-6.220381509758914e-05, 4.156540496444094e-05]</t>
         </is>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
         <v>0.0006734756443624962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008815473978741064</v>
+        <v>0.0008225406364297255</v>
       </c>
       <c r="D16" t="n">
-        <v>0.448</v>
+        <v>0.576</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-0.00048340083712649024, 0.0030438449943105362]</t>
+          <t>[-0.00040214404263999896, 0.0025203304673993327]</t>
         </is>
       </c>
     </row>
@@ -2343,10 +2343,10 @@
         <v>9.586309079141912e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>9.414399762113968e-05</v>
+        <v>9.903302785359477e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.154</v>
+        <v>0.176</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 0.0003199360250133828]</t>
+          <t>[0.0, 0.00033158111176983043]</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>0.01359073591863184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003269472644013808</v>
+        <v>0.003136387363236424</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.007489800356489433, 0.020026756812087244]</t>
+          <t>[0.0073079313889013574, 0.01944343778305702]</t>
         </is>
       </c>
     </row>
@@ -2525,10 +2525,10 @@
         <v>0.0001601685156696924</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007539508260522246</v>
+        <v>0.0007564633723038274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.836</v>
+        <v>0.834</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.0014993458867009388, 0.001573988874106356]</t>
+          <t>[-0.001249588385705685, 0.0017133640971714018]</t>
         </is>
       </c>
     </row>
@@ -2551,10 +2551,10 @@
         <v>0.0002372017868594935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007008006481524336</v>
+        <v>0.0007505578359418585</v>
       </c>
       <c r="D25" t="n">
-        <v>0.712</v>
+        <v>0.746</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.000975667521544696, 0.0018295023364776689]</t>
+          <t>[-0.0012251808069945927, 0.0016841591697956695]</t>
         </is>
       </c>
     </row>
@@ -2707,10 +2707,10 @@
         <v>0.001593723822766651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001249909462171843</v>
+        <v>0.001230201626487658</v>
       </c>
       <c r="D31" t="n">
-        <v>0.228</v>
+        <v>0.18</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.0006488394679963612, 0.004172831525661028]</t>
+          <t>[-0.0007135273188344287, 0.004148478431860623]</t>
         </is>
       </c>
     </row>
@@ -2733,10 +2733,10 @@
         <v>0.003268861690952046</v>
       </c>
       <c r="C32" t="n">
-        <v>0.00146010911634038</v>
+        <v>0.001448299458572583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[0.0003827070699917174, 0.006251960191912098]</t>
+          <t>[0.0006948429509569952, 0.006434541871926311]</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>-0.01978018380571789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003101145392344795</v>
+        <v>0.002998821114853601</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.026654899086069862, -0.014571132326581233]</t>
+          <t>[-0.025420149928449605, -0.014080445158601188]</t>
         </is>
       </c>
     </row>
@@ -2889,10 +2889,10 @@
         <v>-0.006359268452178195</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005072826998411959</v>
+        <v>0.004733760090548925</v>
       </c>
       <c r="D38" t="n">
-        <v>0.208</v>
+        <v>0.172</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.016053151623856905, 0.00361331702141087]</t>
+          <t>[-0.014376967648073585, 0.0036908222026232917]</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>-0.01618070229509681</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004597966173846651</v>
+        <v>0.004546482954347906</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.024519946769766154, -0.007302817319058717]</t>
+          <t>[-0.025406927022051315, -0.0074105708252075846]</t>
         </is>
       </c>
     </row>
@@ -2941,10 +2941,10 @@
         <v>0.005780823044858414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003743383893596116</v>
+        <v>0.003565276108009171</v>
       </c>
       <c r="D40" t="n">
-        <v>0.116</v>
+        <v>0.106</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.0016923019334014265, 0.013211843586554018]</t>
+          <t>[-0.001228757555875936, 0.012701365613667762]</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>-0.01391214022302732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003639079972567328</v>
+        <v>0.003625188283302569</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.02150252488969171, -0.006590676719624102]</t>
+          <t>[-0.02109020165966735, -0.00717407267049436]</t>
         </is>
       </c>
     </row>
@@ -2993,19 +2993,19 @@
         <v>-0.01358229627582501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003933559325535713</v>
+        <v>0.003811104353256234</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.02232960225060337, -0.006690974281375578]</t>
+          <t>[-0.02159326876679818, -0.006201186164943465]</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
         <v>-0.400268027894721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05108983183604858</v>
+        <v>0.04779654268763391</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.4929396597669076, -0.3016862931762375]</t>
+          <t>[-0.49010974809855723, -0.3110957825359487]</t>
         </is>
       </c>
     </row>

--- a/examples/housing_different_levels_feature_info.xlsx
+++ b/examples/housing_different_levels_feature_info.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3305273321919366</v>
+        <v>0.3530477706247885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03256281739702977</v>
+        <v>0.03078380888433838</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2940621051379161</v>
+        <v>0.2883472539884028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02409108034845309</v>
+        <v>0.0204164094685923</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03960659220958447</v>
+        <v>0.04970258134664467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006228686156378642</v>
+        <v>0.008516189762871516</v>
       </c>
     </row>
     <row r="5">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03812834230676241</v>
+        <v>0.03653518882522122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006094003657103203</v>
+        <v>0.005794567408597899</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03567081119685515</v>
+        <v>0.03407561171648325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01076025488479784</v>
+        <v>0.002116512263251264</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02876711007440851</v>
+        <v>0.0301585644968275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004803832571701117</v>
+        <v>0.005574337807984749</v>
       </c>
     </row>
     <row r="8">
@@ -542,36 +542,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02734857547007728</v>
+        <v>0.02775174222407357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01000615145177223</v>
+        <v>0.006582397749087739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01643589379314265</v>
+        <v>0.01731598359218607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005046461194351899</v>
+        <v>0.004074482667862529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01557271969740917</v>
+        <v>0.01681295153692424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005540060167757119</v>
+        <v>0.005454050049038151</v>
       </c>
     </row>
     <row r="11">
@@ -581,36 +581,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009881764713896147</v>
+        <v>0.0155214812872928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004495279429703319</v>
+        <v>0.003854264871645538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.004237070287537614</v>
+        <v>-0.00390993546008025</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005520147242412375</v>
+        <v>0.0006823255173947428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00440388357821091</v>
+        <v>-0.004506080728104722</v>
       </c>
       <c r="C13" t="n">
-        <v>9.068076211488678e-05</v>
+        <v>0.0002353162179524433</v>
       </c>
     </row>
   </sheetData>
@@ -656,36 +656,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1276445468093829</v>
+        <v>0.1307383666748557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01277437910300758</v>
+        <v>0.009864462463938663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09187932743315072</v>
+        <v>0.09765706023448642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01417500955643608</v>
+        <v>0.006774669317776301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09075092315260587</v>
+        <v>0.08814453912062356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009420685997869094</v>
+        <v>0.0100358917548924</v>
       </c>
     </row>
     <row r="5">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08438463239697096</v>
+        <v>0.08187638381124743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007848323439039509</v>
+        <v>0.005261011939160161</v>
       </c>
     </row>
     <row r="6">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0156495924902027</v>
+        <v>0.01419031584722756</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001450607111070505</v>
+        <v>0.003350255596776672</v>
       </c>
     </row>
     <row r="7">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01039660561275377</v>
+        <v>0.008750929672290653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001313752714676336</v>
+        <v>0.0008400679103776469</v>
       </c>
     </row>
     <row r="8">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001751598413934019</v>
+        <v>0.001764897601224647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008545917050242124</v>
+        <v>0.001190371799369687</v>
       </c>
     </row>
     <row r="9">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000518802110022687</v>
+        <v>0.0006505792274608124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001308500884047752</v>
+        <v>0.0001821264590401907</v>
       </c>
     </row>
     <row r="10">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003064430754433634</v>
+        <v>6.485757413103866e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000399627797355676</v>
+        <v>0.0003157092989682503</v>
       </c>
     </row>
     <row r="11">
@@ -773,36 +773,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.419896479006646e-06</v>
+        <v>4.263948783385096e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004157012273662144</v>
+        <v>0.000201506667388303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.966800551567061e-05</v>
+        <v>3.287086019254648e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.900056333899298e-05</v>
+        <v>0.0002009487443175057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002094045186772142</v>
+        <v>-1.331004867457519e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003999671372255404</v>
+        <v>7.822748402313342e-05</v>
       </c>
     </row>
   </sheetData>
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2677084486826405</v>
+        <v>0.2508023382751387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02680427799424186</v>
+        <v>0.005731479767247693</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1714982214702134</v>
+        <v>0.1700205102457805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01426990638492858</v>
+        <v>0.009513304220001828</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09129003044610376</v>
+        <v>0.09520754559629815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005122660833173319</v>
+        <v>0.008922119235358714</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08279619694549711</v>
+        <v>0.07803751935844934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007183330150437776</v>
+        <v>0.002825106907661532</v>
       </c>
     </row>
     <row r="6">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05810658268675275</v>
+        <v>0.06052884566856011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006642874705171127</v>
+        <v>0.006593246444343159</v>
       </c>
     </row>
     <row r="7">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05412984425494363</v>
+        <v>0.05115132283145978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004669611366975967</v>
+        <v>0.003073976778639026</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02426028672268072</v>
+        <v>0.02269678584473429</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001333800691997696</v>
+        <v>0.001866845496462536</v>
       </c>
     </row>
     <row r="9">
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02216492291794971</v>
+        <v>0.02141272375292571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002069944011064786</v>
+        <v>0.002093194791198288</v>
       </c>
     </row>
     <row r="10">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01708351417575911</v>
+        <v>0.01770283042220988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001430424591025751</v>
+        <v>0.0008583304116385955</v>
       </c>
     </row>
     <row r="11">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00477476965608985</v>
+        <v>0.005123301928794488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004619889346377528</v>
+        <v>0.0006794097858180048</v>
       </c>
     </row>
     <row r="12">
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2822061111163302</v>
+        <v>0.2978436262406362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01724960778434109</v>
+        <v>0.01601685776890826</v>
       </c>
     </row>
     <row r="3">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1349251433000499</v>
+        <v>0.1280171044696772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006853588235029141</v>
+        <v>0.006071402182733198</v>
       </c>
     </row>
     <row r="4">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1333770828889762</v>
+        <v>0.1203121301997897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0157950635139701</v>
+        <v>0.01207480651010585</v>
       </c>
     </row>
     <row r="5">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09915488135983622</v>
+        <v>0.09648241878946931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008602508114565413</v>
+        <v>0.007613957296200585</v>
       </c>
     </row>
     <row r="6">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08413959748960176</v>
+        <v>0.08819822632871896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00581289803456021</v>
+        <v>0.007708546198978168</v>
       </c>
     </row>
     <row r="7">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05226029036194473</v>
+        <v>0.04984885990415903</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004077388678440414</v>
+        <v>0.00494303652371663</v>
       </c>
     </row>
     <row r="8">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04521153202499664</v>
+        <v>0.04922127093809918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009219295331558588</v>
+        <v>0.007446914462172865</v>
       </c>
     </row>
     <row r="9">
@@ -1131,62 +1131,62 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02259224855241375</v>
+        <v>0.02129904234189073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00352144162733247</v>
+        <v>0.002960266750157927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02133146236536174</v>
+        <v>0.01677841914937843</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004335685891002102</v>
+        <v>0.003610441024402982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>COVID19</t>
+          <t>t_COVID19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719692657530587</v>
+        <v>0.01658179671082476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005029718090622208</v>
+        <v>0.005561173893030868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01517161300679395</v>
+        <v>0.01503655062248188</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002328613600979104</v>
+        <v>0.00253339100806679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t_COVID19</t>
+          <t>COVID19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01048205967500171</v>
+        <v>0.01441931757770412</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005261081230329044</v>
+        <v>0.004318327301285898</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3633753616809722</v>
+        <v>0.355870522834499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02261123454293594</v>
+        <v>0.02675035435907841</v>
       </c>
     </row>
     <row r="3">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2056526723527118</v>
+        <v>0.2097691582355064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01278462346362934</v>
+        <v>0.02102605090102187</v>
       </c>
     </row>
     <row r="4">
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01597055101903504</v>
+        <v>0.01685154757481071</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00420252077526354</v>
+        <v>0.006943764093538535</v>
       </c>
     </row>
     <row r="5">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01052575455612708</v>
+        <v>0.009911322687304769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001662880531770609</v>
+        <v>0.003896916382811492</v>
       </c>
     </row>
     <row r="6">
@@ -1284,36 +1284,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00283485607327878</v>
+        <v>0.003321115485296344</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007848856420095571</v>
+        <v>0.0005398586256561031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001599339252706833</v>
+        <v>0.001058022285004068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001122536440903827</v>
+        <v>0.001489859392467829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001502006255463817</v>
+        <v>0.0009245975064621659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009140686218235295</v>
+        <v>0.0005936430418743994</v>
       </c>
     </row>
     <row r="9">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001083604460023957</v>
+        <v>0.0005759231061082115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001444874115580786</v>
+        <v>0.0007691492829569558</v>
       </c>
     </row>
     <row r="10">
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.313713646133753e-05</v>
+        <v>8.812515597422799e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002383202695128616</v>
+        <v>0.0001132958179105669</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1953,7 @@
         <v>131.6506449003594</v>
       </c>
       <c r="C2" t="n">
-        <v>2.048982301925532</v>
+        <v>2.217777461744528</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[127.61132683295847, 135.74454977860057]</t>
+          <t>[127.52406884337537, 135.82380779783276]</t>
         </is>
       </c>
     </row>
@@ -1979,10 +1979,10 @@
         <v>-0.00162717512177713</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007998463207331773</v>
+        <v>0.0007964683698541253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-0.003320240278052027, -0.00036116827056307133]</t>
+          <t>[-0.0033010551380277422, -0.00035202056660806465]</t>
         </is>
       </c>
     </row>
@@ -2005,10 +2005,10 @@
         <v>-0.001592332110755957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007778530343803839</v>
+        <v>0.0008324720217629847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.046</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-0.0031991880528267217, -0.00020512354353971224]</t>
+          <t>[-0.0032507738022780125, -0.00020501925777185537]</t>
         </is>
       </c>
     </row>
@@ -2031,10 +2031,10 @@
         <v>-0.001076395432928198</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009153634241242237</v>
+        <v>0.0009289394456076198</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-0.0031555446623628197, 0.0002514527563184467]</t>
+          <t>[-0.0033220359979033677, 0.00031620105061763064]</t>
         </is>
       </c>
     </row>
@@ -2057,19 +2057,19 @@
         <v>-0.001437243978794874</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008768178830317378</v>
+        <v>0.0009131662939907886</v>
       </c>
       <c r="D6" t="n">
-        <v>0.092</v>
+        <v>0.114</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-0.0032386755021039976, 0.00011628879511953262]</t>
+          <t>[-0.00329029079336806, 0.00021713789906787815]</t>
         </is>
       </c>
     </row>
@@ -2083,10 +2083,10 @@
         <v>-0.001438190901876749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008044380585086806</v>
+        <v>0.0008441964700001463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.062</v>
+        <v>0.096</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-0.00322727345456906, -0.00010112997733490349]</t>
+          <t>[-0.003176299882815608, 0.00016642528455702388]</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2239,10 @@
         <v>0.0006719094262175365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000410205624830696</v>
+        <v>0.0004241266325040097</v>
       </c>
       <c r="D13" t="n">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.0, 0.0015181503188187217]</t>
+          <t>[0.0, 0.001644045846146189]</t>
         </is>
       </c>
     </row>
@@ -2265,10 +2265,10 @@
         <v>8.703978930971555e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006544108647738605</v>
+        <v>0.0006115490451602979</v>
       </c>
       <c r="D14" t="n">
-        <v>0.86</v>
+        <v>0.904</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-0.0011361901064749773, 0.0013681653723094521]</t>
+          <t>[-0.0011597715287901377, 0.001343729239651477]</t>
         </is>
       </c>
     </row>
@@ -2291,10 +2291,10 @@
         <v>-6.207522023816158e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.309486982163581e-05</v>
+        <v>2.854665461132207e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.462</v>
+        <v>0.868</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-6.220381509758914e-05, 4.156540496444094e-05]</t>
+          <t>[-8.686429209224842e-05, 4.0612586669382145e-05]</t>
         </is>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
         <v>0.0006734756443624962</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008225406364297255</v>
+        <v>0.0008509214592700909</v>
       </c>
       <c r="D16" t="n">
-        <v>0.576</v>
+        <v>0.482</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-0.00040214404263999896, 0.0025203304673993327]</t>
+          <t>[-0.0005077395666195335, 0.002578614228345908]</t>
         </is>
       </c>
     </row>
@@ -2343,10 +2343,10 @@
         <v>9.586309079141912e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>9.903302785359477e-05</v>
+        <v>9.90102147487255e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.176</v>
+        <v>0.158</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 0.00033158111176983043]</t>
+          <t>[0.0, 0.00034685138135586]</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>0.01359073591863184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003136387363236424</v>
+        <v>0.003292724966109239</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0.0073079313889013574, 0.01944343778305702]</t>
+          <t>[0.007486872111999706, 0.020508304891706228]</t>
         </is>
       </c>
     </row>
@@ -2525,10 +2525,10 @@
         <v>0.0001601685156696924</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0007564633723038274</v>
+        <v>0.0007851393931555674</v>
       </c>
       <c r="D24" t="n">
-        <v>0.834</v>
+        <v>0.824</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-0.001249588385705685, 0.0017133640971714018]</t>
+          <t>[-0.0013087079678869929, 0.0017039924440467446]</t>
         </is>
       </c>
     </row>
@@ -2551,10 +2551,10 @@
         <v>0.0002372017868594935</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0007505578359418585</v>
+        <v>0.0006932845371321914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.746</v>
+        <v>0.706</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-0.0012251808069945927, 0.0016841591697956695]</t>
+          <t>[-0.0011900417947419803, 0.0015892213481770831]</t>
         </is>
       </c>
     </row>
@@ -2707,10 +2707,10 @@
         <v>0.001593723822766651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001230201626487658</v>
+        <v>0.00136322311952838</v>
       </c>
       <c r="D31" t="n">
-        <v>0.18</v>
+        <v>0.234</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-0.0007135273188344287, 0.004148478431860623]</t>
+          <t>[-0.0009075131060525786, 0.004301397719433275]</t>
         </is>
       </c>
     </row>
@@ -2733,10 +2733,10 @@
         <v>0.003268861690952046</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001448299458572583</v>
+        <v>0.001430399963347113</v>
       </c>
       <c r="D32" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[0.0006948429509569952, 0.006434541871926311]</t>
+          <t>[0.0006955585169610795, 0.006405623982121415]</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>-0.01978018380571789</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002998821114853601</v>
+        <v>0.00289946072128041</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-0.025420149928449605, -0.014080445158601188]</t>
+          <t>[-0.024979513489333572, -0.01394368649791575]</t>
         </is>
       </c>
     </row>
@@ -2889,10 +2889,10 @@
         <v>-0.006359268452178195</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004733760090548925</v>
+        <v>0.004879204047243041</v>
       </c>
       <c r="D38" t="n">
-        <v>0.172</v>
+        <v>0.188</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-0.014376967648073585, 0.0036908222026232917]</t>
+          <t>[-0.015365592004736708, 0.0034658359564252476]</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>-0.01618070229509681</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004546482954347906</v>
+        <v>0.00452628578913677</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-0.025406927022051315, -0.0074105708252075846]</t>
+          <t>[-0.02445606127391204, -0.007177493637643016]</t>
         </is>
       </c>
     </row>
@@ -2941,10 +2941,10 @@
         <v>0.005780823044858414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003565276108009171</v>
+        <v>0.003640233686109304</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106</v>
+        <v>0.12</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-0.001228757555875936, 0.012701365613667762]</t>
+          <t>[-0.0005890761155219752, 0.012532720444701766]</t>
         </is>
       </c>
     </row>
@@ -2967,19 +2967,19 @@
         <v>-0.01391214022302732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003625188283302569</v>
+        <v>0.003683520862142329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-0.02109020165966735, -0.00717407267049436]</t>
+          <t>[-0.021839661732456973, -0.006504593410891928]</t>
         </is>
       </c>
     </row>
@@ -2993,19 +2993,19 @@
         <v>-0.01358229627582501</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003811104353256234</v>
+        <v>0.003702005477344611</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-0.02159326876679818, -0.006201186164943465]</t>
+          <t>[-0.020936915141460635, -0.006176770271303306]</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3279,7 @@
         <v>-0.400268027894721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04779654268763391</v>
+        <v>0.04901994806611282</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-0.49010974809855723, -0.3110957825359487]</t>
+          <t>[-0.48747854842934357, -0.3022646422110371]</t>
         </is>
       </c>
     </row>
